--- a/data/JSP_dataset.xlsx
+++ b/data/JSP_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d10b21f834252303/桌面/大三下/專題/GA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="11_C36D2856E769CEEBB9C125721384FA9EE6DCAC47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89054B35-C1AE-4BB4-A8C5-2B3271DB22C8}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="11_C36D2856E769CEEBB9C125721384FA9EE6DCAC47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B51740-7026-46D6-A40C-BBADB57CF886}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Type" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>O1</t>
   </si>
@@ -73,6 +73,42 @@
   </si>
   <si>
     <t>setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,6 +177,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -493,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -512,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -569,10 +609,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -588,10 +628,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -607,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -629,7 +669,106 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -640,10 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -704,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -738,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -755,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -772,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -789,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -806,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -823,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -840,7 +979,79 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/JSP_dataset.xlsx
+++ b/data/JSP_dataset.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d10b21f834252303/桌面/大三下/專題/GA/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daphn\GitHub\SelfStudy_Local\2023群雅專題\2023_NTHU_SCHEDULING_GA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="11_C36D2856E769CEEBB9C125721384FA9EE6DCAC47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B51740-7026-46D6-A40C-BBADB57CF886}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECA8EBD-041E-406C-9B72-4E1388CC6D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Job Type" sheetId="1" r:id="rId1"/>
-    <sheet name="Processing Time" sheetId="2" r:id="rId2"/>
+    <sheet name="NEW (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Job Type" sheetId="1" r:id="rId2"/>
+    <sheet name="NEW" sheetId="3" r:id="rId3"/>
+    <sheet name="MACHINE" sheetId="5" r:id="rId4"/>
+    <sheet name="Processing Time" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>O1</t>
   </si>
@@ -109,6 +112,98 @@
   </si>
   <si>
     <t>J20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>SETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,16 +540,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1550D9C5-2591-45B3-8559-855072A0E424}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -471,7 +967,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +986,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -509,7 +1005,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +1024,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -547,7 +1043,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +1062,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +1081,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -604,7 +1100,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -623,7 +1119,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -642,7 +1138,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -661,7 +1157,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -671,8 +1167,9 @@
       <c r="C12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,8 +1179,9 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -693,8 +1191,9 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,8 +1203,9 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -715,8 +1215,9 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -726,8 +1227,9 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -737,8 +1239,9 @@
       <c r="C18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -748,8 +1251,9 @@
       <c r="C19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -759,8 +1263,9 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -770,6 +1275,7 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -777,17 +1283,543 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6236842-6E46-4DCF-808E-24E5D0E9D79D}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEA7199-C29B-4E17-AF14-70F0197233A3}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -804,7 +1836,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -821,7 +1853,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -838,7 +1870,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,7 +1887,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,7 +1904,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,7 +1921,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,7 +1938,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,7 +1955,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,7 +1972,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -957,7 +1989,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,7 +2006,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -982,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -990,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -998,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +2062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +2070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +2078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
